--- a/src/test/resources/Student Profile.xlsx
+++ b/src/test/resources/Student Profile.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="78" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="29740" yWindow="1180" windowWidth="25520" windowHeight="15560" tabRatio="78"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -86,40 +90,44 @@
   </si>
   <si>
     <t>SCS</t>
+  </si>
+  <si>
+    <t>Admission Date</t>
+  </si>
+  <si>
+    <t>Admission Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,100 +141,396 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.0561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5663265306122"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -234,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -242,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -267,18 +571,24 @@
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>2001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>37257</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -291,18 +601,24 @@
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
+      <c r="I6" s="6">
+        <v>37539</v>
+      </c>
+      <c r="J6" s="6">
+        <v>37539.375</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>2002</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>37261</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -314,21 +630,27 @@
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>450.3</v>
       </c>
+      <c r="I7" s="6">
+        <v>37540</v>
+      </c>
+      <c r="J7" s="6">
+        <v>37540.416666666664</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>2003</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>37112</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -340,69 +662,71 @@
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>300</v>
+      </c>
+      <c r="I8" s="6">
+        <v>37541</v>
+      </c>
+      <c r="J8" s="6">
+        <v>37541.458333333336</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/Student Profile.xlsx
+++ b/src/test/resources/Student Profile.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\excel-parser\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29740" yWindow="1180" windowWidth="25520" windowHeight="15560" tabRatio="78"/>
+    <workbookView xWindow="29745" yWindow="1185" windowWidth="25515" windowHeight="15555" tabRatio="78"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,6 +190,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -513,24 +526,24 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -546,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -608,7 +621,7 @@
         <v>37539.375</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -631,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="2">
-        <v>450.3</v>
+        <v>450.35</v>
       </c>
       <c r="I7" s="6">
         <v>37540</v>
@@ -640,7 +653,7 @@
         <v>37540.416666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -693,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -715,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
